--- a/src/Антропометрия.xlsx
+++ b/src/Антропометрия.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Пациент</t>
   </si>
@@ -31,13 +31,28 @@
   </si>
   <si>
     <t>Вес</t>
+  </si>
+  <si>
+    <t>Исследователь:</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Руководитель:</t>
+  </si>
+  <si>
+    <t>Фёдоров Ф.Ф.</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +67,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -82,6 +105,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,170 +389,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>36.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="1">
         <v>170</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>36.6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D5" s="1">
         <v>172</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E5" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D6" s="1">
         <v>190</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E6" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D7" s="1">
         <v>150</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
         <v>36.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D8" s="1">
         <v>192</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E8" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>36.5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D9" s="1">
         <v>175</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E9" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
         <v>36.6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D10" s="1">
         <v>192</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E10" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D11" s="1">
         <v>179</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E11" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
         <v>36.6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D12" s="1">
         <v>174</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E12" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D13" s="1">
         <v>182</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E13" s="1">
         <v>85</v>
       </c>
     </row>
